--- a/Issue 2B/Max 128 Issue 2b BOM.xlsx
+++ b/Issue 2B/Max 128 Issue 2b BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="151">
   <si>
     <t>Designator</t>
   </si>
@@ -191,9 +191,6 @@
     <t>28.375MHz</t>
   </si>
   <si>
-    <t>Y1</t>
-  </si>
-  <si>
     <t>4.433MHz</t>
   </si>
   <si>
@@ -434,9 +431,6 @@
     <t>Header 2</t>
   </si>
   <si>
-    <t>27C256/28C256</t>
-  </si>
-  <si>
     <t>DF02MDI-ND</t>
   </si>
   <si>
@@ -456,13 +450,40 @@
   </si>
   <si>
     <t>10nF (10000pF)</t>
+  </si>
+  <si>
+    <t>BC1075CT-ND</t>
+  </si>
+  <si>
+    <t>Note: Y1 buy from here</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256804924643676.html?spm=a2g0o.productlist.main.1.69ecb531MQJD0Y&amp;algo_pvid=f8189ddb-8fab-4334-927c-212d7a5233a3&amp;algo_exp_id=f8189ddb-8fab-4334-927c-212d7a5233a3-0&amp;pdp_npi=4%40dis%21USD%213.02%211.54%21%21%2122.00%21%21%40210321dc16976695767143414ecc84%2112000031697748677%21sea%21US%21703686525%21&amp;curPageLogUid=fvYFQqMhVbyQ</t>
+  </si>
+  <si>
+    <t>27C256 or 28C256</t>
+  </si>
+  <si>
+    <t>Y1 Buy from Aliexpress, search for 28.375MHz</t>
+  </si>
+  <si>
+    <t>27C256</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/w/wholesale-27256.html?spm=a2g0o.home.search.0</t>
+  </si>
+  <si>
+    <t>28C256</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/w/wholesale-28C256.html?spm=a2g0o.productlist.search.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +530,14 @@
       <sz val="9"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -564,10 +593,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,8 +616,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -869,10 +903,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -885,7 +919,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
@@ -896,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
@@ -904,13 +938,13 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="3">
         <v>5</v>
@@ -918,13 +952,13 @@
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="3">
         <v>17</v>
@@ -932,13 +966,13 @@
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
@@ -946,13 +980,13 @@
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="D6" s="3">
         <v>2</v>
@@ -966,7 +1000,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -974,13 +1008,13 @@
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="3">
         <v>4</v>
@@ -988,13 +1022,13 @@
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="3">
         <v>2</v>
@@ -1002,13 +1036,13 @@
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -1016,13 +1050,13 @@
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3">
         <v>19</v>
@@ -1030,13 +1064,13 @@
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -1050,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
@@ -1061,10 +1095,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -1078,7 +1112,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -1086,13 +1120,13 @@
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -1100,13 +1134,13 @@
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -1117,10 +1151,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -1128,10 +1162,10 @@
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3">
@@ -1140,10 +1174,10 @@
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="3">
@@ -1158,7 +1192,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -1166,7 +1200,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
@@ -1180,13 +1214,13 @@
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="3">
         <v>2</v>
@@ -1194,27 +1228,27 @@
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="3">
         <v>15</v>
@@ -1228,7 +1262,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
@@ -1242,7 +1276,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -1250,13 +1284,13 @@
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="3">
         <v>5</v>
@@ -1270,7 +1304,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D29" s="3">
         <v>5</v>
@@ -1278,13 +1312,13 @@
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3">
         <v>2</v>
@@ -1298,7 +1332,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
@@ -1312,7 +1346,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -1320,13 +1354,13 @@
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="3">
         <v>6</v>
@@ -1340,7 +1374,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
@@ -1348,13 +1382,13 @@
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="3">
         <v>2</v>
@@ -1362,13 +1396,13 @@
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D36" s="3">
         <v>1</v>
@@ -1379,10 +1413,10 @@
         <v>39</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -1390,13 +1424,13 @@
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -1404,10 +1438,10 @@
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="3">
@@ -1416,13 +1450,13 @@
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="3">
         <v>40</v>
@@ -1436,7 +1470,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -1447,9 +1481,11 @@
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="D42" s="3">
         <v>1</v>
       </c>
@@ -1459,10 +1495,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D43" s="3">
         <v>2</v>
@@ -1473,10 +1509,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D44" s="3">
         <v>1</v>
@@ -1490,7 +1526,7 @@
         <v>45</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D45" s="3">
         <v>1</v>
@@ -1498,13 +1534,13 @@
     </row>
     <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
@@ -1518,7 +1554,7 @@
         <v>48</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D47" s="3">
         <v>1</v>
@@ -1532,7 +1568,7 @@
         <v>50</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="3">
         <v>1</v>
@@ -1546,7 +1582,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
@@ -1554,13 +1590,13 @@
     </row>
     <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="3">
         <v>1</v>
@@ -1568,20 +1604,53 @@
     </row>
     <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
       </c>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A54" display="https://www.aliexpress.us/item/3256804924643676.html?spm=a2g0o.productlist.main.1.69ecb531MQJD0Y&amp;algo_pvid=f8189ddb-8fab-4334-927c-212d7a5233a3&amp;algo_exp_id=f8189ddb-8fab-4334-927c-212d7a5233a3-0&amp;pdp_npi=4%40dis%21USD%213.02%211.54%21%21%2122.00%21%21%4021"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="61" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>